--- a/LISTADO_PEDIDO_COMPRAS/data/input/CLASIFICACION_ABC+D_VIVERO.xlsx
+++ b/LISTADO_PEDIDO_COMPRAS/data/input/CLASIFICACION_ABC+D_VIVERO.xlsx
@@ -2463,12 +2463,12 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>8801070002</t>
+          <t>8801020001</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>NARANJO CITRUS SINENSIS</t>
+          <t>LIMONERO CITRUS LIMON</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
@@ -2504,7 +2504,7 @@
         <v>253.44</v>
       </c>
       <c r="K22" s="4" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="L22" s="4" t="n">
         <v>0</v>
@@ -2516,50 +2516,50 @@
         <v>2.9</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>0</v>
+        <v>293.33</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T22" s="7" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 04/03/2025</t>
         </is>
       </c>
       <c r="W22" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>8801020001</t>
+          <t>8801070002</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>LIMONERO CITRUS LIMON</t>
+          <t>NARANJO CITRUS SINENSIS</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -2595,7 +2595,7 @@
         <v>253.44</v>
       </c>
       <c r="K23" s="4" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="L23" s="4" t="n">
         <v>0</v>
@@ -2607,38 +2607,38 @@
         <v>2.9</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>293.33</v>
+        <v>0</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T23" s="7" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T23" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W23" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -5466,12 +5466,12 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>8401020078</t>
+          <t>8401020067</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>CIRUELO PRESIDENT</t>
+          <t>MELOCOTONERO SPRING CREST</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -5557,12 +5557,12 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>8401020067</t>
+          <t>8401020078</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>MELOCOTONERO SPRING CREST</t>
+          <t>CIRUELO PRESIDENT</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
@@ -12382,12 +12382,12 @@
     <row r="131">
       <c r="A131" s="3" t="inlineStr">
         <is>
-          <t>8401020010</t>
+          <t>8401020036</t>
         </is>
       </c>
       <c r="B131" s="3" t="inlineStr">
         <is>
-          <t>CEREZO BURLAT</t>
+          <t>MELOCOTONERO TARDIO</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
@@ -12423,7 +12423,7 @@
         <v>68.01000000000001</v>
       </c>
       <c r="K131" s="4" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L131" s="4" t="n">
         <v>0</v>
@@ -12435,50 +12435,50 @@
         <v>2</v>
       </c>
       <c r="O131" s="4" t="n">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="P131" s="4" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Q131" s="4" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="R131" s="4" t="n">
-        <v>126.67</v>
+        <v>0</v>
       </c>
       <c r="S131" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T131" s="8" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T131" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U131" s="3" t="inlineStr">
         <is>
-          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V131" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W131" s="4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="3" t="inlineStr">
         <is>
-          <t>8401020036</t>
+          <t>8401020010</t>
         </is>
       </c>
       <c r="B132" s="3" t="inlineStr">
         <is>
-          <t>MELOCOTONERO TARDIO</t>
+          <t>CEREZO BURLAT</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
@@ -12514,7 +12514,7 @@
         <v>68.01000000000001</v>
       </c>
       <c r="K132" s="4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L132" s="4" t="n">
         <v>0</v>
@@ -12526,38 +12526,38 @@
         <v>2</v>
       </c>
       <c r="O132" s="4" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="P132" s="4" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Q132" s="4" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="R132" s="4" t="n">
-        <v>0</v>
+        <v>126.67</v>
       </c>
       <c r="S132" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T132" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T132" s="8" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U132" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
         </is>
       </c>
       <c r="V132" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W132" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -14020,17 +14020,17 @@
     <row r="149">
       <c r="A149" s="3" t="inlineStr">
         <is>
-          <t>8401020002</t>
+          <t>8104230004</t>
         </is>
       </c>
       <c r="B149" s="3" t="inlineStr">
         <is>
-          <t>ALBARICOQUE BULIDA</t>
+          <t>ARBUTUS UNEDO</t>
         </is>
       </c>
       <c r="C149" s="3" t="inlineStr">
         <is>
-          <t>35LA200</t>
+          <t>3LA60</t>
         </is>
       </c>
       <c r="D149" s="3" t="inlineStr">
@@ -14040,43 +14040,43 @@
       </c>
       <c r="E149" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F149" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G149" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H149" s="4" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I149" s="4" t="n">
-        <v>121.95</v>
+        <v>206.46</v>
       </c>
       <c r="J149" s="4" t="n">
-        <v>59.56</v>
+        <v>136.39</v>
       </c>
       <c r="K149" s="4" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="L149" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M149" s="5" t="n">
-        <v>0.2</v>
+        <v>2.4</v>
       </c>
       <c r="N149" s="5" t="n">
-        <v>0.5</v>
+        <v>7.3</v>
       </c>
       <c r="O149" s="4" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="P149" s="4" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="Q149" s="4" t="n">
         <v>0</v>
@@ -14094,7 +14094,7 @@
       </c>
       <c r="U149" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V149" s="4" t="inlineStr">
@@ -14111,17 +14111,17 @@
     <row r="150">
       <c r="A150" s="3" t="inlineStr">
         <is>
-          <t>8104230004</t>
+          <t>8401020034</t>
         </is>
       </c>
       <c r="B150" s="3" t="inlineStr">
         <is>
-          <t>ARBUTUS UNEDO</t>
+          <t>MELOCOTON CARSON</t>
         </is>
       </c>
       <c r="C150" s="3" t="inlineStr">
         <is>
-          <t>3LA60</t>
+          <t>35LA200</t>
         </is>
       </c>
       <c r="D150" s="3" t="inlineStr">
@@ -14131,43 +14131,43 @@
       </c>
       <c r="E150" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F150" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G150" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H150" s="4" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I150" s="4" t="n">
-        <v>206.46</v>
+        <v>121.95</v>
       </c>
       <c r="J150" s="4" t="n">
-        <v>136.39</v>
+        <v>59.56</v>
       </c>
       <c r="K150" s="4" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="L150" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M150" s="5" t="n">
-        <v>2.4</v>
+        <v>0.2</v>
       </c>
       <c r="N150" s="5" t="n">
-        <v>7.3</v>
+        <v>0.5</v>
       </c>
       <c r="O150" s="4" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="P150" s="4" t="n">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="Q150" s="4" t="n">
         <v>0</v>
@@ -14185,7 +14185,7 @@
       </c>
       <c r="U150" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V150" s="4" t="inlineStr">
@@ -14202,12 +14202,12 @@
     <row r="151">
       <c r="A151" s="3" t="inlineStr">
         <is>
-          <t>8401020034</t>
+          <t>8401020002</t>
         </is>
       </c>
       <c r="B151" s="3" t="inlineStr">
         <is>
-          <t>MELOCOTON CARSON</t>
+          <t>ALBARICOQUE BULIDA</t>
         </is>
       </c>
       <c r="C151" s="3" t="inlineStr">
@@ -14258,7 +14258,7 @@
         <v>-1</v>
       </c>
       <c r="P151" s="4" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="Q151" s="4" t="n">
         <v>0</v>
@@ -16022,12 +16022,12 @@
     <row r="171">
       <c r="A171" s="3" t="inlineStr">
         <is>
-          <t>8401020022</t>
+          <t>8401020044</t>
         </is>
       </c>
       <c r="B171" s="3" t="inlineStr">
         <is>
-          <t>GRANADO MOLLAR</t>
+          <t>PERAL CONFERENCE</t>
         </is>
       </c>
       <c r="C171" s="3" t="inlineStr">
@@ -16057,13 +16057,13 @@
         <v>3</v>
       </c>
       <c r="I171" s="4" t="n">
-        <v>104.85</v>
+        <v>95.70999999999999</v>
       </c>
       <c r="J171" s="4" t="n">
-        <v>51.4</v>
+        <v>43.09</v>
       </c>
       <c r="K171" s="4" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L171" s="4" t="n">
         <v>0</v>
@@ -16075,10 +16075,10 @@
         <v>1.5</v>
       </c>
       <c r="O171" s="4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P171" s="4" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="Q171" s="4" t="n">
         <v>0</v>
@@ -16091,12 +16091,12 @@
       </c>
       <c r="T171" s="6" t="inlineStr">
         <is>
-          <t>Cero</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U171" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V171" s="4" t="inlineStr">
@@ -16106,19 +16106,19 @@
       </c>
       <c r="W171" s="4" t="inlineStr">
         <is>
-          <t>13C</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="3" t="inlineStr">
         <is>
-          <t>8401020044</t>
+          <t>8401020003</t>
         </is>
       </c>
       <c r="B172" s="3" t="inlineStr">
         <is>
-          <t>PERAL CONFERENCE</t>
+          <t>ALBARICOQUERO MONIQUI</t>
         </is>
       </c>
       <c r="C172" s="3" t="inlineStr">
@@ -16148,10 +16148,10 @@
         <v>3</v>
       </c>
       <c r="I172" s="4" t="n">
-        <v>95.70999999999999</v>
+        <v>104.85</v>
       </c>
       <c r="J172" s="4" t="n">
-        <v>43.09</v>
+        <v>51.4</v>
       </c>
       <c r="K172" s="4" t="n">
         <v>150</v>
@@ -16204,12 +16204,12 @@
     <row r="173">
       <c r="A173" s="3" t="inlineStr">
         <is>
-          <t>8401020003</t>
+          <t>8401020022</t>
         </is>
       </c>
       <c r="B173" s="3" t="inlineStr">
         <is>
-          <t>ALBARICOQUERO MONIQUI</t>
+          <t>GRANADO MOLLAR</t>
         </is>
       </c>
       <c r="C173" s="3" t="inlineStr">
@@ -16245,7 +16245,7 @@
         <v>51.4</v>
       </c>
       <c r="K173" s="4" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="L173" s="4" t="n">
         <v>0</v>
@@ -16257,10 +16257,10 @@
         <v>1.5</v>
       </c>
       <c r="O173" s="4" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P173" s="4" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="Q173" s="4" t="n">
         <v>0</v>
@@ -16273,12 +16273,12 @@
       </c>
       <c r="T173" s="6" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U173" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
         </is>
       </c>
       <c r="V173" s="4" t="inlineStr">
@@ -16288,7 +16288,7 @@
       </c>
       <c r="W173" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13C</t>
         </is>
       </c>
     </row>
@@ -19825,17 +19825,17 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>8802100002</t>
+          <t>8802090002</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>WASHINGTONIA ROBUSTA GRUPO</t>
+          <t>TRACHYCARPUS FORTUNEI GRUPO</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>25LA120</t>
+          <t>15LA100</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
@@ -19866,10 +19866,10 @@
         <v>45.88</v>
       </c>
       <c r="K19" s="4" t="n">
-        <v>33.33</v>
+        <v>25</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>0.2</v>
@@ -19878,10 +19878,10 @@
         <v>0.5</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="Q19" s="4" t="n">
         <v>92</v>
@@ -19916,17 +19916,17 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>8802090002</t>
+          <t>8802100002</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>TRACHYCARPUS FORTUNEI GRUPO</t>
+          <t>WASHINGTONIA ROBUSTA GRUPO</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>15LA100</t>
+          <t>25LA120</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
@@ -19957,10 +19957,10 @@
         <v>45.88</v>
       </c>
       <c r="K20" s="4" t="n">
-        <v>25</v>
+        <v>33.33</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>0.2</v>
@@ -19969,10 +19969,10 @@
         <v>0.5</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="Q20" s="4" t="n">
         <v>92</v>
@@ -21372,17 +21372,17 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>8404130008</t>
+          <t>8802040003</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>UVA CRIMSON SIN PEPITA</t>
+          <t>CORDYLINE AUSTRALIS RED STAR</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>3LA150</t>
+          <t>2I5LA60</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -21392,83 +21392,83 @@
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G36" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H36" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>74.84999999999999</v>
+        <v>79.5</v>
       </c>
       <c r="J36" s="4" t="n">
-        <v>37.09</v>
+        <v>41.31</v>
       </c>
       <c r="K36" s="4" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="L36" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N36" s="5" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="P36" s="4" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>0</v>
+        <v>306.67</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T36" s="7" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>8401020026</t>
+          <t>8401020027</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>KAKI FUYU</t>
+          <t>KAKI ROJO BRILLANTE</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
@@ -21504,7 +21504,7 @@
         <v>36.22</v>
       </c>
       <c r="K37" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L37" s="4" t="n">
         <v>0</v>
@@ -21516,10 +21516,10 @@
         <v>1</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P37" s="4" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q37" s="4" t="n">
         <v>0</v>
@@ -21532,12 +21532,12 @@
       </c>
       <c r="T37" s="6" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
@@ -21547,24 +21547,24 @@
       </c>
       <c r="W37" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13C</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>8802040003</t>
+          <t>8404130008</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>CORDYLINE AUSTRALIS RED STAR</t>
+          <t>UVA CRIMSON SIN PEPITA</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>2I5LA60</t>
+          <t>3LA150</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
@@ -21574,83 +21574,83 @@
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G38" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>79.5</v>
+        <v>74.84999999999999</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>41.31</v>
+        <v>37.09</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="L38" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N38" s="5" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>306.67</v>
+        <v>0</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T38" s="7" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T38" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W38" s="4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>8401020027</t>
+          <t>8401020026</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>KAKI ROJO BRILLANTE</t>
+          <t>KAKI FUYU</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
@@ -21686,7 +21686,7 @@
         <v>36.22</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L39" s="4" t="n">
         <v>0</v>
@@ -21698,10 +21698,10 @@
         <v>1</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Q39" s="4" t="n">
         <v>0</v>
@@ -21714,12 +21714,12 @@
       </c>
       <c r="T39" s="6" t="inlineStr">
         <is>
-          <t>Cero</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
@@ -21729,24 +21729,24 @@
       </c>
       <c r="W39" s="4" t="inlineStr">
         <is>
-          <t>13C</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>8802070001</t>
+          <t>8201070001</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>PHOENIX CANARIENSIS</t>
+          <t>CUPRESSUS MACROCARPA WILMA</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>10LA120</t>
+          <t>M14A40</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -21756,25 +21756,25 @@
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>CONIFERAS</t>
         </is>
       </c>
       <c r="G40" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>91.84</v>
+        <v>77.87</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>52.71</v>
+        <v>40.01</v>
       </c>
       <c r="K40" s="4" t="n">
         <v>0</v>
@@ -21783,16 +21783,16 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>0.3</v>
+        <v>2.1</v>
       </c>
       <c r="N40" s="5" t="n">
-        <v>1</v>
+        <v>6.4</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>-2</v>
+        <v>-13</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="Q40" s="4" t="n">
         <v>0</v>
@@ -21810,7 +21810,7 @@
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -13 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
@@ -21827,17 +21827,17 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>8201070001</t>
+          <t>8802070001</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>CUPRESSUS MACROCARPA WILMA</t>
+          <t>PHOENIX CANARIENSIS</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>M14A40</t>
+          <t>10LA120</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
@@ -21847,25 +21847,25 @@
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>CONIFERAS</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G41" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>77.87</v>
+        <v>91.84</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>40.01</v>
+        <v>52.71</v>
       </c>
       <c r="K41" s="4" t="n">
         <v>0</v>
@@ -21874,16 +21874,16 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>2.1</v>
+        <v>0.3</v>
       </c>
       <c r="N41" s="5" t="n">
-        <v>6.4</v>
+        <v>1</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>-13</v>
+        <v>-2</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="Q41" s="4" t="n">
         <v>0</v>
@@ -21901,7 +21901,7 @@
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -13 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
@@ -22919,17 +22919,17 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>8401020037</t>
+          <t>8401020041</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>MEMBRILLO</t>
+          <t>NOGAL COMUN</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>10LA180</t>
+          <t>10LA150</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
@@ -22975,7 +22975,7 @@
         <v>0</v>
       </c>
       <c r="P53" s="4" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q53" s="4" t="n">
         <v>0</v>
@@ -23010,12 +23010,12 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>8401020041</t>
+          <t>8401020002</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>NOGAL COMUN</t>
+          <t>ALBARICOQUE BULIDA</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -23066,7 +23066,7 @@
         <v>0</v>
       </c>
       <c r="P54" s="4" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q54" s="4" t="n">
         <v>0</v>
@@ -23101,12 +23101,12 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>8401020002</t>
+          <t>8401020004</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>ALBARICOQUE BULIDA</t>
+          <t>ALMENDRO MOLLAR</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -23142,7 +23142,7 @@
         <v>34.27</v>
       </c>
       <c r="K55" s="4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L55" s="4" t="n">
         <v>0</v>
@@ -23154,10 +23154,10 @@
         <v>1</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P55" s="4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q55" s="4" t="n">
         <v>0</v>
@@ -23170,12 +23170,12 @@
       </c>
       <c r="T55" s="6" t="inlineStr">
         <is>
-          <t>Cero</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
@@ -23185,24 +23185,24 @@
       </c>
       <c r="W55" s="4" t="inlineStr">
         <is>
-          <t>13C</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>8401020004</t>
+          <t>8401020037</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>ALMENDRO MOLLAR</t>
+          <t>MEMBRILLO</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>10LA150</t>
+          <t>10LA180</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
@@ -23233,7 +23233,7 @@
         <v>34.27</v>
       </c>
       <c r="K56" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L56" s="4" t="n">
         <v>0</v>
@@ -23245,10 +23245,10 @@
         <v>1</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P56" s="4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q56" s="4" t="n">
         <v>0</v>
@@ -23261,12 +23261,12 @@
       </c>
       <c r="T56" s="6" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
@@ -23276,7 +23276,7 @@
       </c>
       <c r="W56" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13C</t>
         </is>
       </c>
     </row>
@@ -26468,12 +26468,12 @@
     <row r="92">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>8104090002</t>
+          <t>8104090016</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>EUONYMUS JAPONICUS  ALBOMARGINATUS</t>
+          <t>EUONYMUS FORTUNEI EMERALD</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
@@ -26503,16 +26503,16 @@
         <v>3</v>
       </c>
       <c r="I92" s="4" t="n">
-        <v>53.85</v>
+        <v>59.85</v>
       </c>
       <c r="J92" s="4" t="n">
-        <v>26.18</v>
+        <v>31.64</v>
       </c>
       <c r="K92" s="4" t="n">
-        <v>33.33</v>
+        <v>37.5</v>
       </c>
       <c r="L92" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M92" s="5" t="n">
         <v>0.5</v>
@@ -26521,50 +26521,50 @@
         <v>1.5</v>
       </c>
       <c r="O92" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P92" s="4" t="n">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="Q92" s="4" t="n">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="R92" s="4" t="n">
-        <v>10</v>
+        <v>306.67</v>
       </c>
       <c r="S92" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T92" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T92" s="7" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U92" s="3" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 184 días.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V92" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W92" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>8104090016</t>
+          <t>8104090002</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>EUONYMUS FORTUNEI EMERALD</t>
+          <t>EUONYMUS JAPONICUS  ALBOMARGINATUS</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
@@ -26594,16 +26594,16 @@
         <v>3</v>
       </c>
       <c r="I93" s="4" t="n">
-        <v>59.85</v>
+        <v>53.85</v>
       </c>
       <c r="J93" s="4" t="n">
-        <v>31.64</v>
+        <v>26.18</v>
       </c>
       <c r="K93" s="4" t="n">
-        <v>37.5</v>
+        <v>33.33</v>
       </c>
       <c r="L93" s="4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M93" s="5" t="n">
         <v>0.5</v>
@@ -26612,38 +26612,38 @@
         <v>1.5</v>
       </c>
       <c r="O93" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P93" s="4" t="n">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="Q93" s="4" t="n">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="R93" s="4" t="n">
-        <v>306.67</v>
+        <v>10</v>
       </c>
       <c r="S93" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T93" s="7" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T93" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U93" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 184 días.</t>
         </is>
       </c>
       <c r="V93" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/05/2025</t>
         </is>
       </c>
       <c r="W93" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -27287,12 +27287,12 @@
     <row r="101">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>8501010005</t>
+          <t>8103310003</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>ACER PALMATUM CRIMSOM SENTRY COPA</t>
+          <t>PRUNUS CERASIF NIGRA COPA</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
@@ -27307,12 +27307,12 @@
       </c>
       <c r="E101" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F101" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G101" s="4" t="n">
@@ -27343,7 +27343,7 @@
         <v>-1</v>
       </c>
       <c r="P101" s="4" t="n">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="Q101" s="4" t="n">
         <v>0</v>
@@ -27378,12 +27378,12 @@
     <row r="102">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>8103310003</t>
+          <t>8501010005</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>PRUNUS CERASIF NIGRA COPA</t>
+          <t>ACER PALMATUM CRIMSOM SENTRY COPA</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
@@ -27398,12 +27398,12 @@
       </c>
       <c r="E102" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F102" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G102" s="4" t="n">
@@ -27434,7 +27434,7 @@
         <v>-1</v>
       </c>
       <c r="P102" s="4" t="n">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="Q102" s="4" t="n">
         <v>0</v>
@@ -28470,17 +28470,17 @@
     <row r="114">
       <c r="A114" s="3" t="inlineStr">
         <is>
-          <t>8802100002</t>
+          <t>8802100001</t>
         </is>
       </c>
       <c r="B114" s="3" t="inlineStr">
         <is>
-          <t>WASHINGTONIA ROBUSTA GRUPO</t>
+          <t>WASHINGTONIA ROBUSTA</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
         <is>
-          <t>18LA100</t>
+          <t>20LA100</t>
         </is>
       </c>
       <c r="D114" s="3" t="inlineStr">
@@ -28511,10 +28511,10 @@
         <v>25.73</v>
       </c>
       <c r="K114" s="4" t="n">
-        <v>25</v>
+        <v>33.33</v>
       </c>
       <c r="L114" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M114" s="5" t="n">
         <v>0.2</v>
@@ -28523,10 +28523,10 @@
         <v>0.5</v>
       </c>
       <c r="O114" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P114" s="4" t="n">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="Q114" s="4" t="n">
         <v>92</v>
@@ -28561,17 +28561,17 @@
     <row r="115">
       <c r="A115" s="3" t="inlineStr">
         <is>
-          <t>8802100001</t>
+          <t>8303020009</t>
         </is>
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t>WASHINGTONIA ROBUSTA</t>
+          <t>ROSA TREPADOR</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
         <is>
-          <t>20LA100</t>
+          <t>5LA160</t>
         </is>
       </c>
       <c r="D115" s="3" t="inlineStr">
@@ -28581,43 +28581,43 @@
       </c>
       <c r="E115" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>83</t>
         </is>
       </c>
       <c r="F115" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ROSALES</t>
         </is>
       </c>
       <c r="G115" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H115" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I115" s="4" t="n">
-        <v>49.95</v>
+        <v>59.85</v>
       </c>
       <c r="J115" s="4" t="n">
-        <v>25.73</v>
+        <v>34.73</v>
       </c>
       <c r="K115" s="4" t="n">
-        <v>33.33</v>
+        <v>60</v>
       </c>
       <c r="L115" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M115" s="5" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="N115" s="5" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="O115" s="4" t="n">
         <v>2</v>
       </c>
       <c r="P115" s="4" t="n">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="Q115" s="4" t="n">
         <v>92</v>
@@ -28652,17 +28652,17 @@
     <row r="116">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>8303020009</t>
+          <t>8802100002</t>
         </is>
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t>ROSA TREPADOR</t>
+          <t>WASHINGTONIA ROBUSTA GRUPO</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>5LA160</t>
+          <t>18LA100</t>
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr">
@@ -28672,43 +28672,43 @@
       </c>
       <c r="E116" s="4" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F116" s="4" t="inlineStr">
         <is>
-          <t>ROSALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G116" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H116" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" s="4" t="n">
+        <v>49.95</v>
+      </c>
+      <c r="J116" s="4" t="n">
+        <v>25.73</v>
+      </c>
+      <c r="K116" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="L116" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="I116" s="4" t="n">
-        <v>59.85</v>
-      </c>
-      <c r="J116" s="4" t="n">
-        <v>34.73</v>
-      </c>
-      <c r="K116" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="L116" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="M116" s="5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N116" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="N116" s="5" t="n">
-        <v>1.5</v>
-      </c>
       <c r="O116" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P116" s="4" t="n">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="Q116" s="4" t="n">
         <v>92</v>
@@ -29562,17 +29562,17 @@
     <row r="126">
       <c r="A126" s="3" t="inlineStr">
         <is>
-          <t>8804270001</t>
+          <t>8804220001</t>
         </is>
       </c>
       <c r="B126" s="3" t="inlineStr">
         <is>
-          <t>HIBISCUS ROSA SINENSIS ARBUSTIVO</t>
+          <t>MUSA MAURELLI</t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr">
         <is>
-          <t>C30A25</t>
+          <t>C20A60</t>
         </is>
       </c>
       <c r="D126" s="3" t="inlineStr">
@@ -29594,76 +29594,76 @@
         <v>30</v>
       </c>
       <c r="H126" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I126" s="4" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="J126" s="4" t="n">
+        <v>23.73</v>
+      </c>
+      <c r="K126" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" s="5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N126" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I126" s="4" t="n">
-        <v>45.65</v>
-      </c>
-      <c r="J126" s="4" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K126" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="L126" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M126" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N126" s="5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="O126" s="4" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="P126" s="4" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="Q126" s="4" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="R126" s="4" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="S126" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T126" s="8" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T126" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U126" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V126" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W126" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="3" t="inlineStr">
         <is>
-          <t>8804220001</t>
+          <t>8804270001</t>
         </is>
       </c>
       <c r="B127" s="3" t="inlineStr">
         <is>
-          <t>MUSA MAURELLI</t>
+          <t>HIBISCUS ROSA SINENSIS ARBUSTIVO</t>
         </is>
       </c>
       <c r="C127" s="3" t="inlineStr">
         <is>
-          <t>C20A60</t>
+          <t>C30A25</t>
         </is>
       </c>
       <c r="D127" s="3" t="inlineStr">
@@ -29685,59 +29685,59 @@
         <v>30</v>
       </c>
       <c r="H127" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" s="4" t="n">
-        <v>45.9</v>
+        <v>45.65</v>
       </c>
       <c r="J127" s="4" t="n">
-        <v>23.73</v>
+        <v>23.5</v>
       </c>
       <c r="K127" s="4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L127" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M127" s="5" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="N127" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O127" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="O127" s="4" t="n">
-        <v>-2</v>
-      </c>
       <c r="P127" s="4" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="Q127" s="4" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="R127" s="4" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="S127" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T127" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T127" s="8" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U127" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V127" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W127" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -31473,12 +31473,12 @@
     <row r="147">
       <c r="A147" s="3" t="inlineStr">
         <is>
-          <t>8401020073</t>
+          <t>8401020059</t>
         </is>
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>ALMENDRO ENANO</t>
+          <t>MANZANO ENANO</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
@@ -31529,7 +31529,7 @@
         <v>-1</v>
       </c>
       <c r="P147" s="4" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="Q147" s="4" t="n">
         <v>0</v>
@@ -31727,12 +31727,12 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>8401020059</t>
+          <t>8401020073</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>MANZANO ENANO</t>
+          <t>ALMENDRO ENANO</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -31783,7 +31783,7 @@
         <v>-1</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>0</v>
@@ -32637,17 +32637,17 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>8401020032</t>
+          <t>8401020029</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>MANZANO REINETA</t>
+          <t>MANZANO GALA</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>10LA180</t>
+          <t>10LA150</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -32693,7 +32693,7 @@
         <v>-1</v>
       </c>
       <c r="P12" s="4" t="n">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="4" t="n">
         <v>0</v>
@@ -32728,17 +32728,17 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>8401020064</t>
+          <t>8401020032</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>CEREZO LAPINS</t>
+          <t>MANZANO REINETA</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>10LA150</t>
+          <t>10LA180</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -32784,7 +32784,7 @@
         <v>-1</v>
       </c>
       <c r="P13" s="4" t="n">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="Q13" s="4" t="n">
         <v>0</v>
@@ -32819,12 +32819,12 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>8401020029</t>
+          <t>8401020064</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>MANZANO GALA</t>
+          <t>CEREZO LAPINS</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -32875,7 +32875,7 @@
         <v>-1</v>
       </c>
       <c r="P14" s="4" t="n">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="Q14" s="4" t="n">
         <v>0</v>
@@ -33001,12 +33001,12 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>8401020016</t>
+          <t>8401020006</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>CIRUELO JAPONES NEGRO</t>
+          <t>ALMENDRO GUARA</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -33042,7 +33042,7 @@
         <v>17</v>
       </c>
       <c r="K16" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" s="4" t="n">
         <v>0</v>
@@ -33054,38 +33054,38 @@
         <v>0.5</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="R16" s="4" t="n">
-        <v>0</v>
+        <v>126.67</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T16" s="8" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -33274,12 +33274,12 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>8401020006</t>
+          <t>8401020016</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>ALMENDRO GUARA</t>
+          <t>CIRUELO JAPONES NEGRO</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -33315,7 +33315,7 @@
         <v>17</v>
       </c>
       <c r="K19" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L19" s="4" t="n">
         <v>0</v>
@@ -33327,38 +33327,38 @@
         <v>0.5</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>126.67</v>
+        <v>0</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T19" s="8" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T19" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W19" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -33456,17 +33456,17 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>8401020043</t>
+          <t>8401020058</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>PERAL BLANQUILLA</t>
+          <t>MANZANO DELICIOUS ROJO</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>10LA150</t>
+          <t>10LA140</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
@@ -33497,10 +33497,10 @@
         <v>17.13</v>
       </c>
       <c r="K21" s="4" t="n">
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
         <v>0.2</v>
@@ -33509,10 +33509,10 @@
         <v>0.5</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="4" t="n">
         <v>38</v>
@@ -33547,17 +33547,17 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>8401020058</t>
+          <t>8401020043</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>MANZANO DELICIOUS ROJO</t>
+          <t>PERAL BLANQUILLA</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>10LA140</t>
+          <t>10LA150</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -33588,10 +33588,10 @@
         <v>17.13</v>
       </c>
       <c r="K22" s="4" t="n">
-        <v>33.33</v>
+        <v>50</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>0.2</v>
@@ -33600,10 +33600,10 @@
         <v>0.5</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="Q22" s="4" t="n">
         <v>38</v>
@@ -33911,17 +33911,17 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>8701150001</t>
+          <t>8201070002</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>WISTERIA FLORIBUNDA</t>
+          <t>CUPRESSUS</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>10LA160</t>
+          <t>10LA100</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
@@ -33931,12 +33931,12 @@
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TREPADORAS</t>
+          <t>CONIFERAS</t>
         </is>
       </c>
       <c r="G26" s="4" t="n">
@@ -33967,7 +33967,7 @@
         <v>-1</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="Q26" s="4" t="n">
         <v>0</v>
@@ -34002,17 +34002,17 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>8201070002</t>
+          <t>8701150001</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>CUPRESSUS</t>
+          <t>WISTERIA FLORIBUNDA</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>10LA100</t>
+          <t>10LA160</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
@@ -34022,12 +34022,12 @@
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>87</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>CONIFERAS</t>
+          <t>PLANTAS TREPADORAS</t>
         </is>
       </c>
       <c r="G27" s="4" t="n">
@@ -34058,7 +34058,7 @@
         <v>-1</v>
       </c>
       <c r="P27" s="4" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="Q27" s="4" t="n">
         <v>0</v>
@@ -35640,12 +35640,12 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>8401020074</t>
+          <t>8401020020</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>MELOCOTONERO ENANO</t>
+          <t>PERAL ENANO</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
@@ -35684,7 +35684,7 @@
         <v>50</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45" s="5" t="n">
         <v>0.2</v>
@@ -35696,7 +35696,7 @@
         <v>1</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="Q45" s="4" t="n">
         <v>92</v>
@@ -35731,12 +35731,12 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>8401020020</t>
+          <t>8401020074</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>PERAL ENANO</t>
+          <t>MELOCOTONERO ENANO</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -35775,7 +35775,7 @@
         <v>50</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" s="5" t="n">
         <v>0.2</v>
@@ -35787,7 +35787,7 @@
         <v>1</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="Q46" s="4" t="n">
         <v>92</v>
@@ -39090,12 +39090,12 @@
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>8801020003</t>
+          <t>8801010003</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>LIMONERO CITRUS LIMON ESPALDERA</t>
+          <t>CALAMONDIN CITRUS MITIS PIRAMIDE</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
@@ -39146,7 +39146,7 @@
         <v>-1</v>
       </c>
       <c r="P83" s="4" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q83" s="4" t="n">
         <v>0</v>
@@ -39181,12 +39181,12 @@
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>8801010003</t>
+          <t>8801020003</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>CALAMONDIN CITRUS MITIS PIRAMIDE</t>
+          <t>LIMONERO CITRUS LIMON ESPALDERA</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
@@ -39237,7 +39237,7 @@
         <v>-1</v>
       </c>
       <c r="P84" s="4" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q84" s="4" t="n">
         <v>0</v>
@@ -41365,17 +41365,17 @@
     <row r="108">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>8104140007</t>
+          <t>8104140003</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>ILEX AQUIFOLIUM SILVER QUEEN</t>
+          <t>ILEX AQUIFOLIUM ALASKA</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
         <is>
-          <t>PROMO50</t>
+          <t>PROMO50.2</t>
         </is>
       </c>
       <c r="D108" s="3" t="inlineStr">
@@ -41421,7 +41421,7 @@
         <v>-1</v>
       </c>
       <c r="P108" s="4" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="Q108" s="4" t="n">
         <v>0</v>
@@ -41456,17 +41456,17 @@
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>8104140003</t>
+          <t>8104140007</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>ILEX AQUIFOLIUM ALASKA</t>
+          <t>ILEX AQUIFOLIUM SILVER QUEEN</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>PROMO50.2</t>
+          <t>PROMO50</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
@@ -41512,7 +41512,7 @@
         <v>-1</v>
       </c>
       <c r="P109" s="4" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="Q109" s="4" t="n">
         <v>0</v>
@@ -44531,17 +44531,17 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>8501150003</t>
+          <t>8501150004</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>MAGNOLIA GRANDIFLORA</t>
+          <t>MAGNOLIA GRANDIFLORA GALLISONENSIS TRONCO ALTO</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>50LD12</t>
+          <t>20LA200</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -44575,7 +44575,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M2" s="5" t="n">
         <v>0</v>
@@ -44584,19 +44584,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>306.67</v>
+        <v>56.67</v>
       </c>
       <c r="S2" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T2" s="7" t="inlineStr">
         <is>
@@ -44605,12 +44605,12 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 405.52€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
@@ -44622,17 +44622,17 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>8103110000</t>
+          <t>8804110001</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>CORNUX MIX</t>
+          <t>DIPLADENIA</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>C19A60</t>
+          <t>C32A70</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -44642,12 +44642,12 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
@@ -44666,7 +44666,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M3" s="5" t="n">
         <v>0</v>
@@ -44675,19 +44675,19 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>293.33</v>
+        <v>130</v>
       </c>
       <c r="S3" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T3" s="7" t="inlineStr">
         <is>
@@ -44696,12 +44696,12 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/03/2025</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
@@ -44713,17 +44713,17 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>8804240001</t>
+          <t>8404140002</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA</t>
+          <t>LYCIUM BARBARUM (BAYAS GOJI)</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>45LD18</t>
+          <t>2LA60</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -44733,12 +44733,12 @@
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
@@ -44757,7 +44757,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>0</v>
@@ -44766,19 +44766,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>306.67</v>
+        <v>83.33</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T4" s="7" t="inlineStr">
         <is>
@@ -44787,12 +44787,12 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 84.17€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/05/2025</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -44804,17 +44804,17 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>8802080000</t>
+          <t>8501110005</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>PHORMIUM</t>
+          <t>HYDRANGEA MAGICAL</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>10LA60</t>
+          <t>3I5LA40</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -44824,12 +44824,12 @@
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G5" s="4" t="n">
@@ -44848,7 +44848,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
@@ -44857,19 +44857,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>306.67</v>
+        <v>10</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T5" s="7" t="inlineStr">
         <is>
@@ -44878,12 +44878,12 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 102.69€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/05/2025</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
@@ -44895,17 +44895,17 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>8701040008</t>
+          <t>8401020059</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>CAMPSIS RADICANS FLAVA</t>
+          <t>MANZANO ENANO</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>5I5LA200</t>
+          <t>10LA100</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -44915,12 +44915,12 @@
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TREPADORAS</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
@@ -44939,7 +44939,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>0</v>
@@ -44948,7 +44948,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>92</v>
@@ -44969,7 +44969,7 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 82.53€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
@@ -44986,17 +44986,17 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>8801020001</t>
+          <t>8401020039</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>LIMONERO CITRUS LIMON</t>
+          <t>NECTARINA AMARILLA</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>110LA200</t>
+          <t>15LA150</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -45006,12 +45006,12 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
@@ -45045,13 +45045,13 @@
         <v>92</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>306.67</v>
+        <v>126.67</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T7" s="7" t="inlineStr">
         <is>
@@ -45060,12 +45060,12 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 203.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
@@ -45077,17 +45077,17 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>8401020075</t>
+          <t>8501150003</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>DIOSPYROS KAKI</t>
+          <t>MAGNOLIA GRANDIFLORA</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>T20A50</t>
+          <t>18LD8</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -45097,12 +45097,12 @@
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
@@ -45121,7 +45121,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
@@ -45130,16 +45130,16 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>223.33</v>
+        <v>306.67</v>
       </c>
       <c r="S8" s="5" t="n">
         <v>30</v>
@@ -45151,12 +45151,12 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.27€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
@@ -45168,17 +45168,17 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>8802030001</t>
+          <t>8103110000</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>CHAMAEROPS HUMILIS</t>
+          <t>CORNUX MIX</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>50LA80</t>
+          <t>C19A60</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -45188,12 +45188,12 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
@@ -45212,7 +45212,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M9" s="5" t="n">
         <v>0</v>
@@ -45221,16 +45221,16 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>306.67</v>
+        <v>293.33</v>
       </c>
       <c r="S9" s="5" t="n">
         <v>30</v>
@@ -45242,12 +45242,12 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 99.47€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 04/03/2025</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
@@ -45259,17 +45259,17 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>8802090001</t>
+          <t>8101140001</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>TRACHYCARPUS FORTUNEI</t>
+          <t>LIQUIDAMBAR STYRACIFLUA</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>35LD50</t>
+          <t>30LD12</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -45279,12 +45279,12 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
@@ -45333,7 +45333,7 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 87.23€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 130.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
@@ -45350,17 +45350,17 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>8401020039</t>
+          <t>8203010010</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>NECTARINA AMARILLA</t>
+          <t>JUNIPERUS PROCUMBENS NANA</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>15LA150</t>
+          <t>2I5LA20</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -45370,12 +45370,12 @@
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>CONIFERAS</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
@@ -45394,7 +45394,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
@@ -45403,19 +45403,19 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>126.67</v>
+        <v>53.33</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T11" s="7" t="inlineStr">
         <is>
@@ -45424,12 +45424,12 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Compra 15/05/2025</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
@@ -45441,17 +45441,17 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>8804110000</t>
+          <t>8104010007</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA PIRAMIDE</t>
+          <t>ABELIA X GRANDIFLORA</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>C35A170</t>
+          <t>5LA60</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -45461,12 +45461,12 @@
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G12" s="4" t="n">
@@ -45485,7 +45485,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>0</v>
@@ -45494,7 +45494,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>92</v>
@@ -45532,17 +45532,17 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>8804280004</t>
+          <t>8804110000</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>PITTOSPORUM TOBIRA NANA</t>
+          <t>DIPLADENIA PIRAMIDE</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>5LA20</t>
+          <t>C35A170</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -45576,7 +45576,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>0</v>
@@ -45585,19 +45585,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>306.67</v>
+        <v>130</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T13" s="7" t="inlineStr">
         <is>
@@ -45606,12 +45606,12 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.84€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
@@ -45623,17 +45623,17 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>8104020001</t>
+          <t>8804110010</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>AUCUBA JAPONICA CROTONOFILIA</t>
+          <t>DIPLADENIA 4 CAÑAS TRICOLOR</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>10LA90</t>
+          <t>C25A90</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -45643,12 +45643,12 @@
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G14" s="4" t="n">
@@ -45667,7 +45667,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>0</v>
@@ -45676,19 +45676,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>306.67</v>
+        <v>130</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T14" s="7" t="inlineStr">
         <is>
@@ -45697,12 +45697,12 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 45.78€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
@@ -45714,17 +45714,17 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>8101170001</t>
+          <t>8802100001</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>MORUS FRUITLESS</t>
+          <t>WASHINGTONIA ROBUSTA</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>45LD14</t>
+          <t>110LA250</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -45734,12 +45734,12 @@
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
@@ -45773,13 +45773,13 @@
         <v>92</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>56.67</v>
+        <v>306.67</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T15" s="7" t="inlineStr">
         <is>
@@ -45788,12 +45788,12 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 137.73€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
@@ -45805,17 +45805,17 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>8101040002</t>
+          <t>8401020040</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA BONSAI</t>
+          <t>NISPERO ARGELINO</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>285LA220</t>
+          <t>10LA150</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -45825,12 +45825,12 @@
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G16" s="4" t="n">
@@ -45849,7 +45849,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>0</v>
@@ -45858,19 +45858,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="R16" s="4" t="n">
-        <v>306.67</v>
+        <v>126.67</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T16" s="7" t="inlineStr">
         <is>
@@ -45879,12 +45879,12 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 283.11€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
@@ -45896,17 +45896,17 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>8101040002</t>
+          <t>8802090002</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA BONSAI</t>
+          <t>TRACHYCARPUS FORTUNEI GRUPO</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>70LA150</t>
+          <t>70LA180</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -45916,12 +45916,12 @@
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
@@ -45970,7 +45970,7 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 145.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 137.73€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
@@ -45987,17 +45987,17 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>8401020033</t>
+          <t>8501150003</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>MELOCOTON  VID PRECOZ</t>
+          <t>MAGNOLIA GRANDIFLORA</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>15LA180</t>
+          <t>18LA220</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -46007,12 +46007,12 @@
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
@@ -46031,7 +46031,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>0</v>
@@ -46040,19 +46040,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>126.67</v>
+        <v>306.67</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T18" s="7" t="inlineStr">
         <is>
@@ -46061,12 +46061,12 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 178.04€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
@@ -46078,17 +46078,17 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>8802100001</t>
+          <t>8801020001</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>WASHINGTONIA ROBUSTA</t>
+          <t>LIMONERO CITRUS LIMON</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>110LA250</t>
+          <t>110LA200</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
@@ -46152,7 +46152,7 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 137.73€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 203.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
@@ -46169,17 +46169,17 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>8103390000</t>
+          <t>8804110008</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>SYRINGA</t>
+          <t>DIPLADENIA TRIPLE ARCO</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>2LA60</t>
+          <t>C40A180</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
@@ -46189,12 +46189,12 @@
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G20" s="4" t="n">
@@ -46213,7 +46213,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>0</v>
@@ -46222,19 +46222,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="R20" s="4" t="n">
-        <v>240</v>
+        <v>130</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T20" s="7" t="inlineStr">
         <is>
@@ -46243,12 +46243,12 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/03/2025</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W20" s="4" t="inlineStr">
@@ -46260,17 +46260,17 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>8803010001</t>
+          <t>8802090001</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>NERIUM OLEANDER</t>
+          <t>TRACHYCARPUS FORTUNEI</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>20LD10</t>
+          <t>35LD50</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
@@ -46319,10 +46319,10 @@
         <v>92</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="R21" s="4" t="n">
-        <v>210</v>
+        <v>306.67</v>
       </c>
       <c r="S21" s="5" t="n">
         <v>30</v>
@@ -46334,12 +46334,12 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 87.23€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W21" s="4" t="inlineStr">
@@ -46351,17 +46351,17 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>8804110001</t>
+          <t>8501150003</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA</t>
+          <t>MAGNOLIA GRANDIFLORA</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>C32A70</t>
+          <t>10LA180</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -46371,12 +46371,12 @@
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
@@ -46395,7 +46395,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>0</v>
@@ -46404,19 +46404,19 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>130</v>
+        <v>306.67</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T22" s="7" t="inlineStr">
         <is>
@@ -46425,12 +46425,12 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 95.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W22" s="4" t="inlineStr">
@@ -46442,17 +46442,17 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>8802100001</t>
+          <t>8203010018</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>WASHINGTONIA ROBUSTA</t>
+          <t>JUNIPERUS SABINA TAMARISCIFOLIA</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>35LA140</t>
+          <t>2I5LA30</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -46462,12 +46462,12 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>CONIFERAS</t>
         </is>
       </c>
       <c r="G23" s="4" t="n">
@@ -46486,7 +46486,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>0</v>
@@ -46495,19 +46495,19 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>306.67</v>
+        <v>53.33</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T23" s="7" t="inlineStr">
         <is>
@@ -46516,12 +46516,12 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.16€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 15/05/2025</t>
         </is>
       </c>
       <c r="W23" s="4" t="inlineStr">
@@ -46533,17 +46533,17 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>8104230060</t>
+          <t>8101040002</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>ABUTILON MEGAPOTANICUM</t>
+          <t>OLEA EUROPAEA BONSAI</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>2I5LA40</t>
+          <t>285LA220</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -46577,7 +46577,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>0</v>
@@ -46586,16 +46586,16 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>200</v>
+        <v>306.67</v>
       </c>
       <c r="S24" s="5" t="n">
         <v>30</v>
@@ -46607,12 +46607,12 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 283.11€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Compra 01/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
@@ -46624,17 +46624,17 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>8106070017</t>
+          <t>8106050001</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>LEPTOSPERMUM SCOPARIUM</t>
+          <t>PHOTINIA FRASERI RED ROBIN</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>4LA70</t>
+          <t>30LD10</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -46668,7 +46668,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>0</v>
@@ -46677,16 +46677,16 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="R25" s="4" t="n">
-        <v>306.67</v>
+        <v>210</v>
       </c>
       <c r="S25" s="5" t="n">
         <v>30</v>
@@ -46698,12 +46698,12 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.44€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 29/03/2025</t>
         </is>
       </c>
       <c r="W25" s="4" t="inlineStr">
@@ -46715,17 +46715,17 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>8106050001</t>
+          <t>8802100001</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>PHOTINIA FRASERI RED ROBIN</t>
+          <t>WASHINGTONIA ROBUSTA</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>25LD10</t>
+          <t>70LA200</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
@@ -46735,12 +46735,12 @@
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G26" s="4" t="n">
@@ -46759,7 +46759,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>0</v>
@@ -46768,7 +46768,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>92</v>
@@ -46789,7 +46789,7 @@
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 229.54€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 87.23€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
@@ -46806,17 +46806,17 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>8802110004</t>
+          <t>8701040008</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>YUCCA ELEPHANTIPES JEWEL</t>
+          <t>CAMPSIS RADICANS FLAVA</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>4LA50</t>
+          <t>5I5LA200</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
@@ -46826,12 +46826,12 @@
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>87</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>PLANTAS TREPADORAS</t>
         </is>
       </c>
       <c r="G27" s="4" t="n">
@@ -46850,7 +46850,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>0</v>
@@ -46859,19 +46859,19 @@
         <v>0</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P27" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>10</v>
+        <v>306.67</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T27" s="7" t="inlineStr">
         <is>
@@ -46880,12 +46880,12 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 82.53€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
@@ -46897,17 +46897,17 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>8802050001</t>
+          <t>8802080000</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>CYCA REVOLUTA</t>
+          <t>PHORMIUM</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>26LA40</t>
+          <t>10LA60</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
@@ -46941,7 +46941,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M28" s="5" t="n">
         <v>0</v>
@@ -46950,7 +46950,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P28" s="4" t="n">
         <v>92</v>
@@ -46971,7 +46971,7 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 128.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 102.69€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
@@ -46988,17 +46988,17 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>8203010014</t>
+          <t>8101040002</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>JUNIPERUS HORIZONTALIS BLUE CHIP</t>
+          <t>OLEA EUROPAEA BONSAI</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>2I5LA20</t>
+          <t>110LA180</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
@@ -47008,12 +47008,12 @@
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>CONIFERAS</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G29" s="4" t="n">
@@ -47032,7 +47032,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M29" s="5" t="n">
         <v>0</v>
@@ -47041,19 +47041,19 @@
         <v>0</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P29" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q29" s="4" t="n">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="R29" s="4" t="n">
-        <v>53.33</v>
+        <v>306.67</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T29" s="7" t="inlineStr">
         <is>
@@ -47062,12 +47062,12 @@
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 206.6€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
         <is>
-          <t>Compra 15/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W29" s="4" t="inlineStr">
@@ -47079,17 +47079,17 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>8802090002</t>
+          <t>8401020061</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>TRACHYCARPUS FORTUNEI GRUPO</t>
+          <t>NECTARINA BLANCA</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>45LA160</t>
+          <t>15LA150</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
@@ -47099,12 +47099,12 @@
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G30" s="4" t="n">
@@ -47138,13 +47138,13 @@
         <v>92</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>306.67</v>
+        <v>126.67</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T30" s="7" t="inlineStr">
         <is>
@@ -47153,12 +47153,12 @@
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 99.47€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
@@ -47170,17 +47170,17 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>8804110002</t>
+          <t>8501040006</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA ESPALDERA</t>
+          <t>CAMELIA SPRING FESTIVAL</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>M14A40</t>
+          <t>10LA100</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
@@ -47190,12 +47190,12 @@
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G31" s="4" t="n">
@@ -47214,7 +47214,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="4" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M31" s="5" t="n">
         <v>0</v>
@@ -47223,19 +47223,19 @@
         <v>0</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="P31" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q31" s="4" t="n">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>13.33</v>
+        <v>306.67</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T31" s="7" t="inlineStr">
         <is>
@@ -47244,12 +47244,12 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 91.28€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
         <is>
-          <t>Compra 27/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W31" s="4" t="inlineStr">
@@ -47261,17 +47261,17 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>8101140001</t>
+          <t>8802030001</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDAMBAR STYRACIFLUA</t>
+          <t>CHAMAEROPS HUMILIS</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>30LD12</t>
+          <t>160LA120</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
@@ -47281,12 +47281,12 @@
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G32" s="4" t="n">
@@ -47335,7 +47335,7 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 130.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 229.54€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
@@ -47352,17 +47352,17 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>8804240001</t>
+          <t>8104020001</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA</t>
+          <t>AUCUBA JAPONICA CROTONOFILIA</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>18LD10</t>
+          <t>10LA90</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
@@ -47372,12 +47372,12 @@
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G33" s="4" t="n">
@@ -47396,7 +47396,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M33" s="5" t="n">
         <v>0</v>
@@ -47405,7 +47405,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P33" s="4" t="n">
         <v>92</v>
@@ -47426,7 +47426,7 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 52.79€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 45.78€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
@@ -47443,17 +47443,17 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>8104230061</t>
+          <t>8401020067</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>BARTLETTINA SORDIDA</t>
+          <t>MELOCOTONERO BABY GOLD</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>2I5LA30</t>
+          <t>5LA100</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
@@ -47463,12 +47463,12 @@
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G34" s="4" t="n">
@@ -47487,7 +47487,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="4" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="M34" s="5" t="n">
         <v>0</v>
@@ -47496,16 +47496,16 @@
         <v>0</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="P34" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q34" s="4" t="n">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>153.33</v>
+        <v>306.67</v>
       </c>
       <c r="S34" s="5" t="n">
         <v>30</v>
@@ -47517,12 +47517,12 @@
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 83.5€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>Compra 15/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
@@ -47534,17 +47534,17 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>8404140002</t>
+          <t>8804240001</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>LYCIUM BARBARUM (BAYAS GOJI)</t>
+          <t>OLEA EUROPAEA</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>2LA60</t>
+          <t>25LD12</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
@@ -47554,12 +47554,12 @@
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G35" s="4" t="n">
@@ -47578,7 +47578,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M35" s="5" t="n">
         <v>0</v>
@@ -47587,19 +47587,19 @@
         <v>0</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P35" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q35" s="4" t="n">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="R35" s="4" t="n">
-        <v>83.33</v>
+        <v>306.67</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T35" s="7" t="inlineStr">
         <is>
@@ -47608,12 +47608,12 @@
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.45€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W35" s="4" t="inlineStr">
@@ -47625,17 +47625,17 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>8501030001</t>
+          <t>8101170001</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>GARDENIA JASMINOIDE</t>
+          <t>MORUS FRUITLESS</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>1I6LA20</t>
+          <t>45LD14</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -47645,12 +47645,12 @@
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G36" s="4" t="n">
@@ -47669,7 +47669,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="4" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="M36" s="5" t="n">
         <v>0</v>
@@ -47678,16 +47678,16 @@
         <v>0</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="P36" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>10</v>
+        <v>56.67</v>
       </c>
       <c r="S36" s="5" t="n">
         <v>0</v>
@@ -47704,7 +47704,7 @@
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/05/2025</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
@@ -47716,17 +47716,17 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>8802030001</t>
+          <t>8102040002</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>CHAMAEROPS HUMILIS</t>
+          <t>PHYLLOSTACHYS BISSETTI</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>160LA120</t>
+          <t>10LA225</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
@@ -47736,12 +47736,12 @@
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G37" s="4" t="n">
@@ -47760,7 +47760,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M37" s="5" t="n">
         <v>0</v>
@@ -47769,7 +47769,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P37" s="4" t="n">
         <v>92</v>
@@ -47790,7 +47790,7 @@
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 229.54€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
@@ -47807,17 +47807,17 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>8802090001</t>
+          <t>8802110001</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>TRACHYCARPUS FORTUNEI</t>
+          <t>YUCCA ELEGANS</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>70LD100</t>
+          <t>4LA50</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
@@ -47851,7 +47851,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M38" s="5" t="n">
         <v>0</v>
@@ -47860,19 +47860,19 @@
         <v>0</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>306.67</v>
+        <v>10</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T38" s="7" t="inlineStr">
         <is>
@@ -47881,12 +47881,12 @@
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 145.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/05/2025</t>
         </is>
       </c>
       <c r="W38" s="4" t="inlineStr">
@@ -47898,17 +47898,17 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>8804240001</t>
+          <t>8104230061</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA</t>
+          <t>BARTLETTINA SORDIDA</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>35LD16</t>
+          <t>2I5LA30</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
@@ -47918,12 +47918,12 @@
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G39" s="4" t="n">
@@ -47942,7 +47942,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M39" s="5" t="n">
         <v>0</v>
@@ -47951,16 +47951,16 @@
         <v>0</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P39" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>306.67</v>
+        <v>153.33</v>
       </c>
       <c r="S39" s="5" t="n">
         <v>30</v>
@@ -47972,12 +47972,12 @@
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 68.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 15/04/2025</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
@@ -47989,17 +47989,17 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>8802100001</t>
+          <t>8804240001</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>WASHINGTONIA ROBUSTA</t>
+          <t>OLEA EUROPAEA</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>70LA200</t>
+          <t>18LD8</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -48033,7 +48033,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M40" s="5" t="n">
         <v>0</v>
@@ -48042,7 +48042,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P40" s="4" t="n">
         <v>92</v>
@@ -48063,7 +48063,7 @@
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 87.23€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
@@ -48080,17 +48080,17 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>8701160000</t>
+          <t>8802100001</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>STEPHANOTIS JASMINOIDES</t>
+          <t>WASHINGTONIA ROBUSTA</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>C21A100</t>
+          <t>35LA140</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
@@ -48100,12 +48100,12 @@
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TREPADORAS</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G41" s="4" t="n">
@@ -48124,7 +48124,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="M41" s="5" t="n">
         <v>0</v>
@@ -48133,7 +48133,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>92</v>
@@ -48154,7 +48154,7 @@
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 81.58€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.16€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
@@ -48171,17 +48171,17 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>8501150004</t>
+          <t>8802050001</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>MAGNOLIA GRANDIFLORA GALLISONENSIS TRONCO ALTO</t>
+          <t>CYCA REVOLUTA</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>20LA200</t>
+          <t>26LA40</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
@@ -48191,12 +48191,12 @@
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G42" s="4" t="n">
@@ -48215,7 +48215,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M42" s="5" t="n">
         <v>0</v>
@@ -48224,19 +48224,19 @@
         <v>0</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>56.67</v>
+        <v>306.67</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T42" s="7" t="inlineStr">
         <is>
@@ -48245,12 +48245,12 @@
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 128.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W42" s="4" t="inlineStr">
@@ -48262,17 +48262,17 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>8101040002</t>
+          <t>8203010014</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA BONSAI</t>
+          <t>JUNIPERUS HORIZONTALIS BLUE CHIP</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>110LA180</t>
+          <t>2I5LA20</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
@@ -48282,12 +48282,12 @@
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>CONIFERAS</t>
         </is>
       </c>
       <c r="G43" s="4" t="n">
@@ -48306,7 +48306,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M43" s="5" t="n">
         <v>0</v>
@@ -48315,19 +48315,19 @@
         <v>0</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P43" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v>306.67</v>
+        <v>53.33</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T43" s="7" t="inlineStr">
         <is>
@@ -48336,12 +48336,12 @@
       </c>
       <c r="U43" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 206.6€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V43" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 15/05/2025</t>
         </is>
       </c>
       <c r="W43" s="4" t="inlineStr">
@@ -48353,17 +48353,17 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>8106050001</t>
+          <t>8802110004</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>PHOTINIA FRASERI RED ROBIN</t>
+          <t>YUCCA ELEPHANTIPES JEWEL</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>30LD8</t>
+          <t>4LA50</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
@@ -48373,12 +48373,12 @@
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G44" s="4" t="n">
@@ -48397,7 +48397,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M44" s="5" t="n">
         <v>0</v>
@@ -48406,19 +48406,19 @@
         <v>0</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P44" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T44" s="7" t="inlineStr">
         <is>
@@ -48427,12 +48427,12 @@
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/03/2025</t>
+          <t>Compra 28/05/2025</t>
         </is>
       </c>
       <c r="W44" s="4" t="inlineStr">
@@ -48444,17 +48444,17 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>8804110010</t>
+          <t>8101290002</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA 4 CAÑAS TRICOLOR</t>
+          <t>LIGUSTRUM JAPONICUM</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>C25A90</t>
+          <t>1I5LA40</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
@@ -48464,12 +48464,12 @@
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G45" s="4" t="n">
@@ -48488,7 +48488,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="M45" s="5" t="n">
         <v>0</v>
@@ -48497,19 +48497,19 @@
         <v>0</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>130</v>
+        <v>56.67</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T45" s="7" t="inlineStr">
         <is>
@@ -48518,12 +48518,12 @@
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
@@ -48535,17 +48535,17 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>8802080001</t>
+          <t>8804240001</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>PHORMIUM TENAX</t>
+          <t>OLEA EUROPAEA</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>3LA40</t>
+          <t>45LD18</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
@@ -48579,7 +48579,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M46" s="5" t="n">
         <v>0</v>
@@ -48588,7 +48588,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>92</v>
@@ -48609,7 +48609,7 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.8€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 84.17€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
@@ -48626,17 +48626,17 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>8203010018</t>
+          <t>8401020057</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>JUNIPERUS SABINA TAMARISCIFOLIA</t>
+          <t>NECTARINO ENANO</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>2I5LA30</t>
+          <t>10LA100</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
@@ -48646,12 +48646,12 @@
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>CONIFERAS</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G47" s="4" t="n">
@@ -48670,7 +48670,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M47" s="5" t="n">
         <v>0</v>
@@ -48679,19 +48679,19 @@
         <v>0</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P47" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q47" s="4" t="n">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="R47" s="4" t="n">
-        <v>53.33</v>
+        <v>306.67</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T47" s="7" t="inlineStr">
         <is>
@@ -48700,12 +48700,12 @@
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
         <is>
-          <t>Compra 15/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W47" s="4" t="inlineStr">
@@ -48717,17 +48717,17 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>8501150003</t>
+          <t>8101040002</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>MAGNOLIA GRANDIFLORA</t>
+          <t>OLEA EUROPAEA BONSAI</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>18LD8</t>
+          <t>70LA150</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
@@ -48737,12 +48737,12 @@
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G48" s="4" t="n">
@@ -48791,7 +48791,7 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.27€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 145.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
@@ -48808,17 +48808,17 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>8803010001</t>
+          <t>8101170001</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>NERIUM OLEANDER</t>
+          <t>MORUS FRUITLESS</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>35LD14</t>
+          <t>30LD12</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
@@ -48828,12 +48828,12 @@
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G49" s="4" t="n">
@@ -48867,13 +48867,13 @@
         <v>92</v>
       </c>
       <c r="Q49" s="4" t="n">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="R49" s="4" t="n">
-        <v>210</v>
+        <v>56.67</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T49" s="7" t="inlineStr">
         <is>
@@ -48882,12 +48882,12 @@
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/03/2025</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W49" s="4" t="inlineStr">
@@ -48899,17 +48899,17 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>8804270003</t>
+          <t>8802080001</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>HIBISCUS ROSA SINENSIS COPA</t>
+          <t>PHORMIUM TENAX</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>C21A70</t>
+          <t>3LA40</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
@@ -48943,7 +48943,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M50" s="5" t="n">
         <v>0</v>
@@ -48952,19 +48952,19 @@
         <v>0</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P50" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q50" s="4" t="n">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="R50" s="4" t="n">
-        <v>60</v>
+        <v>306.67</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T50" s="7" t="inlineStr">
         <is>
@@ -48973,12 +48973,12 @@
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.8€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
         <is>
-          <t>Compra 13/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W50" s="4" t="inlineStr">
@@ -48990,17 +48990,17 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>8401020042</t>
+          <t>8804250006</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>PARAGUAYO</t>
+          <t>JASMINUM SAMBAC</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>15LA150</t>
+          <t>C21A150</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
@@ -49010,12 +49010,12 @@
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G51" s="4" t="n">
@@ -49034,7 +49034,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="4" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="M51" s="5" t="n">
         <v>0</v>
@@ -49043,19 +49043,19 @@
         <v>0</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="P51" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q51" s="4" t="n">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="R51" s="4" t="n">
-        <v>126.67</v>
+        <v>306.67</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T51" s="7" t="inlineStr">
         <is>
@@ -49064,12 +49064,12 @@
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 68.14€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W51" s="4" t="inlineStr">
@@ -49081,17 +49081,17 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>8101290002</t>
+          <t>8803010001</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>LIGUSTRUM JAPONICUM</t>
+          <t>NERIUM OLEANDER</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>1I5LA40</t>
+          <t>20LD12</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
@@ -49101,12 +49101,12 @@
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G52" s="4" t="n">
@@ -49125,7 +49125,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="M52" s="5" t="n">
         <v>0</v>
@@ -49134,19 +49134,19 @@
         <v>0</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="P52" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q52" s="4" t="n">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="R52" s="4" t="n">
-        <v>56.67</v>
+        <v>210</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T52" s="7" t="inlineStr">
         <is>
@@ -49155,12 +49155,12 @@
       </c>
       <c r="U52" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V52" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Compra 29/03/2025</t>
         </is>
       </c>
       <c r="W52" s="4" t="inlineStr">
@@ -49172,17 +49172,17 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>8203010003</t>
+          <t>8106050001</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>JUNIPERUS HORIZONTALIS "ANDORRA COMPACT"</t>
+          <t>PHOTINIA FRASERI RED ROBIN</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>2I5LA40</t>
+          <t>20LD6</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
@@ -49192,12 +49192,12 @@
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>CONIFERAS</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G53" s="4" t="n">
@@ -49216,7 +49216,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M53" s="5" t="n">
         <v>0</v>
@@ -49225,19 +49225,19 @@
         <v>0</v>
       </c>
       <c r="O53" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P53" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q53" s="4" t="n">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="R53" s="4" t="n">
-        <v>53.33</v>
+        <v>210</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T53" s="7" t="inlineStr">
         <is>
@@ -49246,12 +49246,12 @@
       </c>
       <c r="U53" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V53" s="4" t="inlineStr">
         <is>
-          <t>Compra 15/05/2025</t>
+          <t>Compra 29/03/2025</t>
         </is>
       </c>
       <c r="W53" s="4" t="inlineStr">
@@ -49263,17 +49263,17 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>8404070001</t>
+          <t>8802090001</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>RIBES RUBRUM GROSELLA BLANCA</t>
+          <t>TRACHYCARPUS FORTUNEI</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>2LA60</t>
+          <t>70LD100</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
@@ -49283,12 +49283,12 @@
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G54" s="4" t="n">
@@ -49307,7 +49307,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="M54" s="5" t="n">
         <v>0</v>
@@ -49316,19 +49316,19 @@
         <v>0</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="P54" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q54" s="4" t="n">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="R54" s="4" t="n">
-        <v>83.33</v>
+        <v>306.67</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T54" s="7" t="inlineStr">
         <is>
@@ -49337,12 +49337,12 @@
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 145.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W54" s="4" t="inlineStr">
@@ -49354,17 +49354,17 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>8102040002</t>
+          <t>8401020075</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>PHYLLOSTACHYS BISSETTI</t>
+          <t>DIOSPYROS KAKI</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>10LA225</t>
+          <t>T20A50</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
@@ -49374,12 +49374,12 @@
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G55" s="4" t="n">
@@ -49398,7 +49398,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M55" s="5" t="n">
         <v>0</v>
@@ -49407,16 +49407,16 @@
         <v>0</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P55" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="R55" s="4" t="n">
-        <v>306.67</v>
+        <v>223.33</v>
       </c>
       <c r="S55" s="5" t="n">
         <v>30</v>
@@ -49428,12 +49428,12 @@
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/03/2025</t>
         </is>
       </c>
       <c r="W55" s="4" t="inlineStr">
@@ -49445,17 +49445,17 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>8106070018</t>
+          <t>8106050001</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>CUPRESSOCYPARIS LEYLANDII SPYRAL</t>
+          <t>PHOTINIA FRASERI RED ROBIN</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>25LA160</t>
+          <t>30LD8</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
@@ -49504,10 +49504,10 @@
         <v>92</v>
       </c>
       <c r="Q56" s="4" t="n">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="R56" s="4" t="n">
-        <v>306.67</v>
+        <v>210</v>
       </c>
       <c r="S56" s="5" t="n">
         <v>30</v>
@@ -49519,12 +49519,12 @@
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 73.46€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 29/03/2025</t>
         </is>
       </c>
       <c r="W56" s="4" t="inlineStr">
@@ -49536,17 +49536,17 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>8303020010</t>
+          <t>8804270003</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>ROSA COPA 1/2 FUSTA</t>
+          <t>HIBISCUS ROSA SINENSIS COPA</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>7LA120</t>
+          <t>C21A70</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
@@ -49556,12 +49556,12 @@
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>ROSALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G57" s="4" t="n">
@@ -49580,7 +49580,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M57" s="5" t="n">
         <v>0</v>
@@ -49589,19 +49589,19 @@
         <v>0</v>
       </c>
       <c r="O57" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P57" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q57" s="4" t="n">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="R57" s="4" t="n">
-        <v>306.67</v>
+        <v>60</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T57" s="7" t="inlineStr">
         <is>
@@ -49610,12 +49610,12 @@
       </c>
       <c r="U57" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 76.51€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V57" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 13/05/2025</t>
         </is>
       </c>
       <c r="W57" s="4" t="inlineStr">
@@ -49627,17 +49627,17 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>8802040005</t>
+          <t>8404070001</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>CORDYLINE AUSTRALIS DAZZLER</t>
+          <t>RIBES RUBRUM GROSELLA BLANCA</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>2I5LA60</t>
+          <t>2LA60</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
@@ -49647,12 +49647,12 @@
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G58" s="4" t="n">
@@ -49671,7 +49671,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="4" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M58" s="5" t="n">
         <v>0</v>
@@ -49680,19 +49680,19 @@
         <v>0</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P58" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q58" s="4" t="n">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="R58" s="4" t="n">
-        <v>306.67</v>
+        <v>83.33</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T58" s="7" t="inlineStr">
         <is>
@@ -49701,12 +49701,12 @@
       </c>
       <c r="U58" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 70.31€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V58" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/05/2025</t>
         </is>
       </c>
       <c r="W58" s="4" t="inlineStr">
@@ -49718,17 +49718,17 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>8203010010</t>
+          <t>8804110002</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>JUNIPERUS PROCUMBENS NANA</t>
+          <t>DIPLADENIA ESPALDERA</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>2I5LA20</t>
+          <t>C35A150</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
@@ -49738,12 +49738,12 @@
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>CONIFERAS</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G59" s="4" t="n">
@@ -49762,7 +49762,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M59" s="5" t="n">
         <v>0</v>
@@ -49771,19 +49771,19 @@
         <v>0</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P59" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q59" s="4" t="n">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="R59" s="4" t="n">
-        <v>53.33</v>
+        <v>130</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T59" s="7" t="inlineStr">
         <is>
@@ -49792,12 +49792,12 @@
       </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
         <is>
-          <t>Compra 15/05/2025</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W59" s="4" t="inlineStr">
@@ -49809,17 +49809,17 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>8804250006</t>
+          <t>8803010001</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>JASMINUM SAMBAC</t>
+          <t>NERIUM OLEANDER</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>C21A150</t>
+          <t>35LD14</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
@@ -49853,7 +49853,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="4" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="M60" s="5" t="n">
         <v>0</v>
@@ -49862,16 +49862,16 @@
         <v>0</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="P60" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q60" s="4" t="n">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="R60" s="4" t="n">
-        <v>306.67</v>
+        <v>210</v>
       </c>
       <c r="S60" s="5" t="n">
         <v>30</v>
@@ -49883,12 +49883,12 @@
       </c>
       <c r="U60" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 68.14€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V60" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 29/03/2025</t>
         </is>
       </c>
       <c r="W60" s="4" t="inlineStr">
@@ -49900,17 +49900,17 @@
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>8401020054</t>
+          <t>8501030001</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>CIRUELO CLAUDIA ENANO</t>
+          <t>GARDENIA JASMINOIDE</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>10LA100</t>
+          <t>1I6LA20</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
@@ -49920,12 +49920,12 @@
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G61" s="4" t="n">
@@ -49944,7 +49944,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="4" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="M61" s="5" t="n">
         <v>0</v>
@@ -49953,19 +49953,19 @@
         <v>0</v>
       </c>
       <c r="O61" s="4" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P61" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q61" s="4" t="n">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="R61" s="4" t="n">
-        <v>306.67</v>
+        <v>10</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T61" s="7" t="inlineStr">
         <is>
@@ -49974,12 +49974,12 @@
       </c>
       <c r="U61" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V61" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/05/2025</t>
         </is>
       </c>
       <c r="W61" s="4" t="inlineStr">
@@ -49991,17 +49991,17 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>8804240001</t>
+          <t>8803010001</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA</t>
+          <t>NERIUM OLEANDER</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>18LD8</t>
+          <t>20LD10</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
@@ -50035,7 +50035,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M62" s="5" t="n">
         <v>0</v>
@@ -50044,16 +50044,16 @@
         <v>0</v>
       </c>
       <c r="O62" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P62" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q62" s="4" t="n">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="R62" s="4" t="n">
-        <v>306.67</v>
+        <v>210</v>
       </c>
       <c r="S62" s="5" t="n">
         <v>30</v>
@@ -50065,12 +50065,12 @@
       </c>
       <c r="U62" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V62" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 29/03/2025</t>
         </is>
       </c>
       <c r="W62" s="4" t="inlineStr">
@@ -50082,17 +50082,17 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>8401020067</t>
+          <t>8501150003</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>MELOCOTONERO BABY GOLD</t>
+          <t>MAGNOLIA GRANDIFLORA</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>5LA100</t>
+          <t>50LD12</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
@@ -50102,12 +50102,12 @@
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G63" s="4" t="n">
@@ -50126,7 +50126,7 @@
         <v>0</v>
       </c>
       <c r="L63" s="4" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M63" s="5" t="n">
         <v>0</v>
@@ -50135,7 +50135,7 @@
         <v>0</v>
       </c>
       <c r="O63" s="4" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="P63" s="4" t="n">
         <v>92</v>
@@ -50156,7 +50156,7 @@
       </c>
       <c r="U63" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 83.5€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 405.52€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V63" s="4" t="inlineStr">
@@ -50173,17 +50173,17 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>8401020061</t>
+          <t>8401020033</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>NECTARINA BLANCA</t>
+          <t>MELOCOTON  VID PRECOZ</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>15LA150</t>
+          <t>15LA180</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
@@ -50264,17 +50264,17 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>8501040006</t>
+          <t>8802090002</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>CAMELIA SPRING FESTIVAL</t>
+          <t>TRACHYCARPUS FORTUNEI GRUPO</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>10LA100</t>
+          <t>45LA160</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
@@ -50284,12 +50284,12 @@
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G65" s="4" t="n">
@@ -50308,7 +50308,7 @@
         <v>0</v>
       </c>
       <c r="L65" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M65" s="5" t="n">
         <v>0</v>
@@ -50317,7 +50317,7 @@
         <v>0</v>
       </c>
       <c r="O65" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P65" s="4" t="n">
         <v>92</v>
@@ -50338,7 +50338,7 @@
       </c>
       <c r="U65" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 91.28€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 99.47€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V65" s="4" t="inlineStr">
@@ -50355,17 +50355,17 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>8802080002</t>
+          <t>8106070018</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>PHORMIUM TENAX VARIEGATA</t>
+          <t>CUPRESSOCYPARIS LEYLANDII SPYRAL</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>3LA40</t>
+          <t>25LA160</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
@@ -50375,12 +50375,12 @@
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G66" s="4" t="n">
@@ -50399,7 +50399,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M66" s="5" t="n">
         <v>0</v>
@@ -50408,7 +50408,7 @@
         <v>0</v>
       </c>
       <c r="O66" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P66" s="4" t="n">
         <v>92</v>
@@ -50429,7 +50429,7 @@
       </c>
       <c r="U66" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.75€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 73.46€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V66" s="4" t="inlineStr">
@@ -50446,17 +50446,17 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>8802090001</t>
+          <t>8203010005</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>TRACHYCARPUS FORTUNEI</t>
+          <t>JUNIPERUS SQUAMATA BLUE STAR</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>230LD300</t>
+          <t>2I5LA25</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
@@ -50466,12 +50466,12 @@
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>CONIFERAS</t>
         </is>
       </c>
       <c r="G67" s="4" t="n">
@@ -50490,7 +50490,7 @@
         <v>0</v>
       </c>
       <c r="L67" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M67" s="5" t="n">
         <v>0</v>
@@ -50499,19 +50499,19 @@
         <v>0</v>
       </c>
       <c r="O67" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P67" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q67" s="4" t="n">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="R67" s="4" t="n">
-        <v>306.67</v>
+        <v>53.33</v>
       </c>
       <c r="S67" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T67" s="7" t="inlineStr">
         <is>
@@ -50520,12 +50520,12 @@
       </c>
       <c r="U67" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 413.18€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V67" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 15/05/2025</t>
         </is>
       </c>
       <c r="W67" s="4" t="inlineStr">
@@ -50537,17 +50537,17 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>8106050001</t>
+          <t>8804110004</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>PHOTINIA FRASERI RED ROBIN</t>
+          <t>DIPLADENIA DOBLE ARCO</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>30LD10</t>
+          <t>C25A120</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
@@ -50557,12 +50557,12 @@
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G68" s="4" t="n">
@@ -50581,7 +50581,7 @@
         <v>0</v>
       </c>
       <c r="L68" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M68" s="5" t="n">
         <v>0</v>
@@ -50590,19 +50590,19 @@
         <v>0</v>
       </c>
       <c r="O68" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P68" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q68" s="4" t="n">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="R68" s="4" t="n">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="S68" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T68" s="7" t="inlineStr">
         <is>
@@ -50611,12 +50611,12 @@
       </c>
       <c r="U68" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V68" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/03/2025</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W68" s="4" t="inlineStr">
@@ -50628,17 +50628,17 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>8804110002</t>
+          <t>8802040005</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA ESPALDERA</t>
+          <t>CORDYLINE AUSTRALIS DAZZLER</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>C40A180</t>
+          <t>2I5LA60</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
@@ -50672,7 +50672,7 @@
         <v>0</v>
       </c>
       <c r="L69" s="4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M69" s="5" t="n">
         <v>0</v>
@@ -50681,19 +50681,19 @@
         <v>0</v>
       </c>
       <c r="O69" s="4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="P69" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q69" s="4" t="n">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="R69" s="4" t="n">
-        <v>130</v>
+        <v>306.67</v>
       </c>
       <c r="S69" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T69" s="7" t="inlineStr">
         <is>
@@ -50702,12 +50702,12 @@
       </c>
       <c r="U69" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 70.31€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V69" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W69" s="4" t="inlineStr">
@@ -50719,12 +50719,12 @@
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>8804110008</t>
+          <t>8804110002</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA TRIPLE ARCO</t>
+          <t>DIPLADENIA ESPALDERA</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
@@ -50810,17 +50810,17 @@
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>8401020040</t>
+          <t>8701160000</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>NISPERO ARGELINO</t>
+          <t>STEPHANOTIS JASMINOIDES</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>10LA150</t>
+          <t>C21A100</t>
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr">
@@ -50830,12 +50830,12 @@
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>87</t>
         </is>
       </c>
       <c r="F71" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS TREPADORAS</t>
         </is>
       </c>
       <c r="G71" s="4" t="n">
@@ -50854,7 +50854,7 @@
         <v>0</v>
       </c>
       <c r="L71" s="4" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="M71" s="5" t="n">
         <v>0</v>
@@ -50863,19 +50863,19 @@
         <v>0</v>
       </c>
       <c r="O71" s="4" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="P71" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q71" s="4" t="n">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="R71" s="4" t="n">
-        <v>126.67</v>
+        <v>306.67</v>
       </c>
       <c r="S71" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T71" s="7" t="inlineStr">
         <is>
@@ -50884,12 +50884,12 @@
       </c>
       <c r="U71" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 81.58€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V71" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W71" s="4" t="inlineStr">
@@ -50901,17 +50901,17 @@
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>8401020057</t>
+          <t>8106050001</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>NECTARINO ENANO</t>
+          <t>PHOTINIA FRASERI RED ROBIN</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>10LA100</t>
+          <t>25LD10</t>
         </is>
       </c>
       <c r="D72" s="3" t="inlineStr">
@@ -50921,12 +50921,12 @@
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G72" s="4" t="n">
@@ -50945,7 +50945,7 @@
         <v>0</v>
       </c>
       <c r="L72" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M72" s="5" t="n">
         <v>0</v>
@@ -50954,7 +50954,7 @@
         <v>0</v>
       </c>
       <c r="O72" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P72" s="4" t="n">
         <v>92</v>
@@ -50975,7 +50975,7 @@
       </c>
       <c r="U72" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 229.54€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V72" s="4" t="inlineStr">
@@ -50992,17 +50992,17 @@
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>8401020032</t>
+          <t>8804240001</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>MANZANO REINETA</t>
+          <t>OLEA EUROPAEA</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>15LA180</t>
+          <t>35LD16</t>
         </is>
       </c>
       <c r="D73" s="3" t="inlineStr">
@@ -51012,12 +51012,12 @@
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F73" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G73" s="4" t="n">
@@ -51036,7 +51036,7 @@
         <v>0</v>
       </c>
       <c r="L73" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M73" s="5" t="n">
         <v>0</v>
@@ -51045,19 +51045,19 @@
         <v>0</v>
       </c>
       <c r="O73" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P73" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q73" s="4" t="n">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="R73" s="4" t="n">
-        <v>126.67</v>
+        <v>306.67</v>
       </c>
       <c r="S73" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T73" s="7" t="inlineStr">
         <is>
@@ -51066,12 +51066,12 @@
       </c>
       <c r="U73" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 68.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V73" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W73" s="4" t="inlineStr">
@@ -51083,17 +51083,17 @@
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>8802080000</t>
+          <t>8106070017</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>PHORMIUM</t>
+          <t>LEPTOSPERMUM SCOPARIUM</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>3LA40</t>
+          <t>4LA70</t>
         </is>
       </c>
       <c r="D74" s="3" t="inlineStr">
@@ -51103,12 +51103,12 @@
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F74" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G74" s="4" t="n">
@@ -51127,7 +51127,7 @@
         <v>0</v>
       </c>
       <c r="L74" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M74" s="5" t="n">
         <v>0</v>
@@ -51136,7 +51136,7 @@
         <v>0</v>
       </c>
       <c r="O74" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P74" s="4" t="n">
         <v>92</v>
@@ -51157,7 +51157,7 @@
       </c>
       <c r="U74" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.95€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.44€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V74" s="4" t="inlineStr">
@@ -51174,17 +51174,17 @@
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>8501150003</t>
+          <t>8401020032</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>MAGNOLIA GRANDIFLORA</t>
+          <t>MANZANO REINETA</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>18LA220</t>
+          <t>15LA180</t>
         </is>
       </c>
       <c r="D75" s="3" t="inlineStr">
@@ -51194,12 +51194,12 @@
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F75" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G75" s="4" t="n">
@@ -51218,7 +51218,7 @@
         <v>0</v>
       </c>
       <c r="L75" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M75" s="5" t="n">
         <v>0</v>
@@ -51227,19 +51227,19 @@
         <v>0</v>
       </c>
       <c r="O75" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P75" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q75" s="4" t="n">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="R75" s="4" t="n">
-        <v>306.67</v>
+        <v>126.67</v>
       </c>
       <c r="S75" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T75" s="7" t="inlineStr">
         <is>
@@ -51248,12 +51248,12 @@
       </c>
       <c r="U75" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 178.04€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V75" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W75" s="4" t="inlineStr">
@@ -51265,17 +51265,17 @@
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>8104010007</t>
+          <t>8804240001</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>ABELIA X GRANDIFLORA</t>
+          <t>OLEA EUROPAEA</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>5LA60</t>
+          <t>18LD10</t>
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr">
@@ -51285,12 +51285,12 @@
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G76" s="4" t="n">
@@ -51309,7 +51309,7 @@
         <v>0</v>
       </c>
       <c r="L76" s="4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M76" s="5" t="n">
         <v>0</v>
@@ -51318,19 +51318,19 @@
         <v>0</v>
       </c>
       <c r="O76" s="4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P76" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q76" s="4" t="n">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="R76" s="4" t="n">
-        <v>130</v>
+        <v>306.67</v>
       </c>
       <c r="S76" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T76" s="7" t="inlineStr">
         <is>
@@ -51339,12 +51339,12 @@
       </c>
       <c r="U76" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 52.79€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V76" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W76" s="4" t="inlineStr">
@@ -51356,17 +51356,17 @@
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>8804240001</t>
+          <t>8802090001</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA</t>
+          <t>TRACHYCARPUS FORTUNEI</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>25LD12</t>
+          <t>230LD300</t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
@@ -51430,7 +51430,7 @@
       </c>
       <c r="U77" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.45€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 413.18€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V77" s="4" t="inlineStr">
@@ -51447,17 +51447,17 @@
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>8501110005</t>
+          <t>8104230060</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>HYDRANGEA MAGICAL</t>
+          <t>ABUTILON MEGAPOTANICUM</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>3I5LA40</t>
+          <t>2I5LA40</t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
@@ -51467,12 +51467,12 @@
       </c>
       <c r="E78" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F78" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G78" s="4" t="n">
@@ -51491,7 +51491,7 @@
         <v>0</v>
       </c>
       <c r="L78" s="4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M78" s="5" t="n">
         <v>0</v>
@@ -51500,19 +51500,19 @@
         <v>0</v>
       </c>
       <c r="O78" s="4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P78" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q78" s="4" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="R78" s="4" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="S78" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T78" s="7" t="inlineStr">
         <is>
@@ -51521,12 +51521,12 @@
       </c>
       <c r="U78" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V78" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/05/2025</t>
+          <t>Compra 01/04/2025</t>
         </is>
       </c>
       <c r="W78" s="4" t="inlineStr">
@@ -51538,17 +51538,17 @@
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>8802090002</t>
+          <t>8401020054</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>TRACHYCARPUS FORTUNEI GRUPO</t>
+          <t>CIRUELO CLAUDIA ENANO</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>70LA180</t>
+          <t>10LA100</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
@@ -51558,12 +51558,12 @@
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F79" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G79" s="4" t="n">
@@ -51612,7 +51612,7 @@
       </c>
       <c r="U79" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 137.73€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V79" s="4" t="inlineStr">
@@ -51629,17 +51629,17 @@
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>8803010001</t>
+          <t>8804110002</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>NERIUM OLEANDER</t>
+          <t>DIPLADENIA ESPALDERA</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>20LD12</t>
+          <t>M14A40</t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
@@ -51673,7 +51673,7 @@
         <v>0</v>
       </c>
       <c r="L80" s="4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M80" s="5" t="n">
         <v>0</v>
@@ -51682,19 +51682,19 @@
         <v>0</v>
       </c>
       <c r="O80" s="4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="P80" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q80" s="4" t="n">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="R80" s="4" t="n">
-        <v>210</v>
+        <v>13.33</v>
       </c>
       <c r="S80" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T80" s="7" t="inlineStr">
         <is>
@@ -51703,12 +51703,12 @@
       </c>
       <c r="U80" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V80" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/03/2025</t>
+          <t>Compra 27/05/2025</t>
         </is>
       </c>
       <c r="W80" s="4" t="inlineStr">
@@ -51720,17 +51720,17 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>8401020059</t>
+          <t>8101170001</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>MANZANO ENANO</t>
+          <t>MORUS FRUITLESS</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>10LA100</t>
+          <t>20LD10</t>
         </is>
       </c>
       <c r="D81" s="3" t="inlineStr">
@@ -51740,12 +51740,12 @@
       </c>
       <c r="E81" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F81" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G81" s="4" t="n">
@@ -51779,13 +51779,13 @@
         <v>92</v>
       </c>
       <c r="Q81" s="4" t="n">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="R81" s="4" t="n">
-        <v>306.67</v>
+        <v>56.67</v>
       </c>
       <c r="S81" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T81" s="7" t="inlineStr">
         <is>
@@ -51794,12 +51794,12 @@
       </c>
       <c r="U81" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V81" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W81" s="4" t="inlineStr">
@@ -51811,17 +51811,17 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>8101170001</t>
+          <t>8802080000</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>MORUS FRUITLESS</t>
+          <t>PHORMIUM</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>20LD10</t>
+          <t>3LA40</t>
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr">
@@ -51831,12 +51831,12 @@
       </c>
       <c r="E82" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F82" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G82" s="4" t="n">
@@ -51855,7 +51855,7 @@
         <v>0</v>
       </c>
       <c r="L82" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M82" s="5" t="n">
         <v>0</v>
@@ -51864,19 +51864,19 @@
         <v>0</v>
       </c>
       <c r="O82" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P82" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q82" s="4" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="R82" s="4" t="n">
-        <v>56.67</v>
+        <v>306.67</v>
       </c>
       <c r="S82" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T82" s="7" t="inlineStr">
         <is>
@@ -51885,12 +51885,12 @@
       </c>
       <c r="U82" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.95€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V82" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W82" s="4" t="inlineStr">
@@ -51902,17 +51902,17 @@
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>8101170001</t>
+          <t>8203010003</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>MORUS FRUITLESS</t>
+          <t>JUNIPERUS HORIZONTALIS "ANDORRA COMPACT"</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>30LD12</t>
+          <t>2I5LA40</t>
         </is>
       </c>
       <c r="D83" s="3" t="inlineStr">
@@ -51922,12 +51922,12 @@
       </c>
       <c r="E83" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F83" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>CONIFERAS</t>
         </is>
       </c>
       <c r="G83" s="4" t="n">
@@ -51946,7 +51946,7 @@
         <v>0</v>
       </c>
       <c r="L83" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M83" s="5" t="n">
         <v>0</v>
@@ -51955,16 +51955,16 @@
         <v>0</v>
       </c>
       <c r="O83" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P83" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q83" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R83" s="4" t="n">
-        <v>56.67</v>
+        <v>53.33</v>
       </c>
       <c r="S83" s="5" t="n">
         <v>0</v>
@@ -51981,7 +51981,7 @@
       </c>
       <c r="V83" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Compra 15/05/2025</t>
         </is>
       </c>
       <c r="W83" s="4" t="inlineStr">
@@ -51993,17 +51993,17 @@
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>8802110001</t>
+          <t>8103390000</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>YUCCA ELEGANS</t>
+          <t>SYRINGA</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>4LA50</t>
+          <t>2LA60</t>
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr">
@@ -52013,12 +52013,12 @@
       </c>
       <c r="E84" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F84" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G84" s="4" t="n">
@@ -52037,7 +52037,7 @@
         <v>0</v>
       </c>
       <c r="L84" s="4" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="M84" s="5" t="n">
         <v>0</v>
@@ -52046,19 +52046,19 @@
         <v>0</v>
       </c>
       <c r="O84" s="4" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="P84" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q84" s="4" t="n">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="R84" s="4" t="n">
-        <v>10</v>
+        <v>240</v>
       </c>
       <c r="S84" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T84" s="7" t="inlineStr">
         <is>
@@ -52067,12 +52067,12 @@
       </c>
       <c r="U84" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V84" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/05/2025</t>
+          <t>Compra 20/03/2025</t>
         </is>
       </c>
       <c r="W84" s="4" t="inlineStr">
@@ -52084,17 +52084,17 @@
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>8203010005</t>
+          <t>8303020010</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>JUNIPERUS SQUAMATA BLUE STAR</t>
+          <t>ROSA COPA 1/2 FUSTA</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>2I5LA25</t>
+          <t>7LA120</t>
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr">
@@ -52104,12 +52104,12 @@
       </c>
       <c r="E85" s="4" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>83</t>
         </is>
       </c>
       <c r="F85" s="4" t="inlineStr">
         <is>
-          <t>CONIFERAS</t>
+          <t>ROSALES</t>
         </is>
       </c>
       <c r="G85" s="4" t="n">
@@ -52128,7 +52128,7 @@
         <v>0</v>
       </c>
       <c r="L85" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M85" s="5" t="n">
         <v>0</v>
@@ -52137,19 +52137,19 @@
         <v>0</v>
       </c>
       <c r="O85" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P85" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q85" s="4" t="n">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="R85" s="4" t="n">
-        <v>53.33</v>
+        <v>306.67</v>
       </c>
       <c r="S85" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T85" s="7" t="inlineStr">
         <is>
@@ -52158,12 +52158,12 @@
       </c>
       <c r="U85" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 76.51€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V85" s="4" t="inlineStr">
         <is>
-          <t>Compra 15/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W85" s="4" t="inlineStr">
@@ -52175,17 +52175,17 @@
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>8804110002</t>
+          <t>8804280004</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA ESPALDERA</t>
+          <t>PITTOSPORUM TOBIRA NANA</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>C35A150</t>
+          <t>5LA20</t>
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr">
@@ -52219,7 +52219,7 @@
         <v>0</v>
       </c>
       <c r="L86" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M86" s="5" t="n">
         <v>0</v>
@@ -52228,19 +52228,19 @@
         <v>0</v>
       </c>
       <c r="O86" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P86" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q86" s="4" t="n">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="R86" s="4" t="n">
-        <v>130</v>
+        <v>306.67</v>
       </c>
       <c r="S86" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T86" s="7" t="inlineStr">
         <is>
@@ -52249,12 +52249,12 @@
       </c>
       <c r="U86" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.84€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V86" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W86" s="4" t="inlineStr">
@@ -52266,17 +52266,17 @@
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>8501150003</t>
+          <t>8401020042</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>MAGNOLIA GRANDIFLORA</t>
+          <t>PARAGUAYO</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>10LA180</t>
+          <t>15LA150</t>
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr">
@@ -52286,12 +52286,12 @@
       </c>
       <c r="E87" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F87" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G87" s="4" t="n">
@@ -52310,7 +52310,7 @@
         <v>0</v>
       </c>
       <c r="L87" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M87" s="5" t="n">
         <v>0</v>
@@ -52319,19 +52319,19 @@
         <v>0</v>
       </c>
       <c r="O87" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P87" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q87" s="4" t="n">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="R87" s="4" t="n">
-        <v>306.67</v>
+        <v>126.67</v>
       </c>
       <c r="S87" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T87" s="7" t="inlineStr">
         <is>
@@ -52340,12 +52340,12 @@
       </c>
       <c r="U87" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 95.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V87" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W87" s="4" t="inlineStr">
@@ -52357,17 +52357,17 @@
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>8106050001</t>
+          <t>8802030001</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>PHOTINIA FRASERI RED ROBIN</t>
+          <t>CHAMAEROPS HUMILIS</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>20LD6</t>
+          <t>50LA80</t>
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr">
@@ -52377,12 +52377,12 @@
       </c>
       <c r="E88" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F88" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G88" s="4" t="n">
@@ -52416,10 +52416,10 @@
         <v>92</v>
       </c>
       <c r="Q88" s="4" t="n">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="R88" s="4" t="n">
-        <v>210</v>
+        <v>306.67</v>
       </c>
       <c r="S88" s="5" t="n">
         <v>30</v>
@@ -52431,12 +52431,12 @@
       </c>
       <c r="U88" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 99.47€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V88" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W88" s="4" t="inlineStr">
@@ -52448,17 +52448,17 @@
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>8804110004</t>
+          <t>8802080002</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA DOBLE ARCO</t>
+          <t>PHORMIUM TENAX VARIEGATA</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>C25A120</t>
+          <t>3LA40</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
@@ -52492,7 +52492,7 @@
         <v>0</v>
       </c>
       <c r="L89" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M89" s="5" t="n">
         <v>0</v>
@@ -52501,19 +52501,19 @@
         <v>0</v>
       </c>
       <c r="O89" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P89" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q89" s="4" t="n">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="R89" s="4" t="n">
-        <v>130</v>
+        <v>306.67</v>
       </c>
       <c r="S89" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T89" s="7" t="inlineStr">
         <is>
@@ -52522,12 +52522,12 @@
       </c>
       <c r="U89" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.75€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V89" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W89" s="4" t="inlineStr">
